--- a/databases/catalog_db.xlsx
+++ b/databases/catalog_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rblasser\OneDrive\Desktop\PORTFOLIO_PRIVAL\mvp\mvp_app\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB81F2C-221A-4638-919D-216A2A0EFA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D828AA9-6428-46C1-B6DE-DCF24A8BCF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="max_allocation" sheetId="5" r:id="rId1"/>
@@ -1767,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAC61F4-3462-4E39-9EA7-FF234E024EF7}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -2707,9 +2707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2749,13 +2749,13 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="21">
         <v>0.6</v>
-      </c>
-      <c r="E2" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="F2" s="21">
-        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,10 +2763,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="22">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="C3" s="23">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="24">
         <v>0.35</v>
@@ -2795,7 +2795,7 @@
         <v>0.25</v>
       </c>
       <c r="F4" s="37">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/databases/catalog_db.xlsx
+++ b/databases/catalog_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rblasser\OneDrive\Desktop\PORTFOLIO_PRIVAL\mvp\mvp_app\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D828AA9-6428-46C1-B6DE-DCF24A8BCF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42262C78-DF40-4E67-8B87-D6F6DEAA6E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
   <si>
     <t>asset_class</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>ZERO COUPON BONDS</t>
+  </si>
+  <si>
+    <t>Private Funds</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -971,11 +974,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1138,6 +1159,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2705,11 +2742,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2746,16 +2783,16 @@
         <v>0.2</v>
       </c>
       <c r="C2" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="19">
         <v>0.5</v>
       </c>
-      <c r="D2" s="19">
-        <v>0.4</v>
-      </c>
       <c r="E2" s="20">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="21">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,19 +2800,19 @@
         <v>19</v>
       </c>
       <c r="B3" s="22">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="C3" s="23">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="24">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="26">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2789,13 +2826,13 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="35">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="36">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="37">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2818,43 +2855,63 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="62">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="64">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B7" s="49">
         <v>1</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C7" s="49">
         <v>2</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D7" s="49">
         <v>3</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E7" s="49">
         <v>4</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F7" s="50">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
+    <row r="8" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B8" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D8" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F8" s="53" t="s">
         <v>85</v>
       </c>
     </row>
